--- a/Assets/Excel/UIForm.xlsx
+++ b/Assets/Excel/UIForm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060"/>
+    <workbookView windowWidth="30720" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,11 +29,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+  <si>
+    <t>UI界面</t>
+  </si>
   <si>
     <t>Id</t>
   </si>
   <si>
+    <t>Notes</t>
+  </si>
+  <si>
     <t>AssetName</t>
   </si>
   <si>
@@ -68,6 +74,9 @@
   </si>
   <si>
     <t>是否允许多个界面实例</t>
+  </si>
+  <si>
+    <t>是否暂停被其覆盖的页面</t>
   </si>
   <si>
     <t>弹出框</t>
@@ -734,9 +743,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1052,92 +1064,90 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="13.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="20.2222222222222" customWidth="1"/>
     <col min="4" max="4" width="24.7777777777778" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="24.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
         <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>100</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
@@ -1146,127 +1156,154 @@
         <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
+        <v>100</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
         <v>101</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="b">
+      <c r="E7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
         <v>102</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1" t="b">
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
         <v>103</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1" t="b">
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
         <v>104</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1" t="b">
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
         <v>105</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="1" t="b">
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
         <v>106</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
